--- a/data/trans_orig/P64DS2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P64DS2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10036F4E-1081-4167-A538-9E924C5E3AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F7742B-2725-473A-A17F-6D023D6E1D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05AEFDF8-20F8-49FC-810C-8C58C867989B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{369FCAF1-151E-40F8-8A87-6104C7F77ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -95,28 +95,28 @@
     <t>8,11%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>8,1%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>En vehículo particular (automóvil, moto)</t>
@@ -128,25 +128,25 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>10,48%</t>
+    <t>10,51%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>En bicicleta</t>
@@ -158,28 +158,28 @@
     <t>88,74%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>85,15%</t>
   </si>
   <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,7 +191,7 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,73%</t>
+    <t>2,48%</t>
   </si>
   <si>
     <t>0,64%</t>
@@ -200,550 +200,556 @@
     <t>0,27%</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>4,71%</t>
+    <t>4,7%</t>
   </si>
   <si>
     <t>6,92%</t>
@@ -752,55 +758,49 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,21%</t>
+    <t>0,22%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1215,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842C9A2E-0DD7-48DC-9218-33BE9EB9ADF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4591D67B-8C37-4883-8774-202D0235F8C1}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1782,10 +1782,10 @@
         <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,13 +1800,13 @@
         <v>15920</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -1815,13 +1815,13 @@
         <v>17510</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -1830,13 +1830,13 @@
         <v>33430</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1851,13 @@
         <v>12970</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -1866,13 +1866,13 @@
         <v>26724</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -1881,13 +1881,13 @@
         <v>39693</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,7 +1908,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1953,13 @@
         <v>322028</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H16" s="7">
         <v>253</v>
@@ -1968,13 +1968,13 @@
         <v>278262</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>478</v>
@@ -1983,13 +1983,13 @@
         <v>600290</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,7 +2045,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2063,7 +2063,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -2072,13 +2072,13 @@
         <v>1491</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -2087,7 +2087,7 @@
         <v>1491</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
@@ -2129,7 +2129,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2192,10 +2192,10 @@
         <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2210,13 @@
         <v>31290</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H21" s="7">
         <v>54</v>
@@ -2225,13 +2225,13 @@
         <v>29641</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M21" s="7">
         <v>91</v>
@@ -2240,13 +2240,13 @@
         <v>60930</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,7 +2267,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2276,13 +2276,13 @@
         <v>1064</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2291,13 +2291,13 @@
         <v>1064</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2312,13 @@
         <v>420049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>472</v>
@@ -2327,13 +2327,13 @@
         <v>330646</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M23" s="7">
         <v>882</v>
@@ -2342,13 +2342,13 @@
         <v>750694</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2404,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2422,7 +2422,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2437,7 +2437,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,13 +2467,13 @@
         <v>2370</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2482,13 +2482,13 @@
         <v>2050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -2497,13 +2497,13 @@
         <v>4420</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2518,13 +2518,13 @@
         <v>20318</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="H27" s="7">
         <v>49</v>
@@ -2533,13 +2533,13 @@
         <v>41502</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M27" s="7">
         <v>68</v>
@@ -2548,13 +2548,13 @@
         <v>61820</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2569,13 @@
         <v>35387</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>66</v>
@@ -2584,13 +2584,13 @@
         <v>35231</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>107</v>
@@ -2602,10 +2602,10 @@
         <v>31</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,7 +2626,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2650,13 +2650,13 @@
         <v>1035</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2671,13 @@
         <v>518853</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>593</v>
@@ -2686,13 +2686,13 @@
         <v>388077</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>1052</v>
@@ -2701,13 +2701,13 @@
         <v>906929</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,7 +2763,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2781,7 +2781,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,7 +2832,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2877,13 @@
         <v>20926</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H34" s="7">
         <v>24</v>
@@ -2892,13 +2892,13 @@
         <v>16044</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M34" s="7">
         <v>45</v>
@@ -2907,13 +2907,13 @@
         <v>36970</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,13 +2928,13 @@
         <v>20935</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H35" s="7">
         <v>47</v>
@@ -2943,13 +2943,13 @@
         <v>24348</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M35" s="7">
         <v>74</v>
@@ -2958,13 +2958,13 @@
         <v>45284</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,7 +2985,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3030,13 @@
         <v>279190</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H37" s="7">
         <v>319</v>
@@ -3045,13 +3045,13 @@
         <v>188756</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M37" s="7">
         <v>629</v>
@@ -3060,13 +3060,13 @@
         <v>467946</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,7 +3122,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3140,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,7 +3191,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3236,13 @@
         <v>159</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -3251,13 +3251,13 @@
         <v>611</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3266,13 +3266,13 @@
         <v>771</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3287,13 @@
         <v>1743</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3302,13 +3302,13 @@
         <v>1341</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -3317,13 +3317,13 @@
         <v>3084</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3389,13 @@
         <v>17871</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H44" s="7">
         <v>34</v>
@@ -3404,13 +3404,13 @@
         <v>17705</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M44" s="7">
         <v>60</v>
@@ -3419,13 +3419,13 @@
         <v>35575</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3493,13 @@
         <v>1821</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -3508,13 +3508,13 @@
         <v>1650</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -3523,13 +3523,13 @@
         <v>3471</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>100</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>219</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3544,13 @@
         <v>6885</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -3559,13 +3559,13 @@
         <v>4974</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M47" s="7">
         <v>12</v>
@@ -3574,13 +3574,13 @@
         <v>11859</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>224</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3595,13 @@
         <v>91231</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="H48" s="7">
         <v>117</v>
@@ -3610,13 +3610,13 @@
         <v>98747</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M48" s="7">
         <v>198</v>
@@ -3625,13 +3625,13 @@
         <v>189977</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3646,13 @@
         <v>105132</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H49" s="7">
         <v>201</v>
@@ -3661,13 +3661,13 @@
         <v>123478</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M49" s="7">
         <v>322</v>
@@ -3676,13 +3676,13 @@
         <v>228610</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3697,13 @@
         <v>1035</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>243</v>
+        <v>53</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -3727,7 +3727,7 @@
         <v>2100</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>11</v>

--- a/data/trans_orig/P64DS2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P64DS2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F7742B-2725-473A-A17F-6D023D6E1D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8A8B097-26FC-42A4-82CF-7DC5C417F456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{369FCAF1-151E-40F8-8A87-6104C7F77ADF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5AF948D1-B098-4443-A418-9E18CB882E85}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1215,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4591D67B-8C37-4883-8774-202D0235F8C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CEBD52-761E-4F27-B721-4469637E4677}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
